--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H2">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I2">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J2">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N2">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P2">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q2">
-        <v>0.3945565227699019</v>
+        <v>0.5815680070706667</v>
       </c>
       <c r="R2">
-        <v>0.3945565227699019</v>
+        <v>5.234112063636</v>
       </c>
       <c r="S2">
-        <v>0.002166180289202668</v>
+        <v>0.002634596020061498</v>
       </c>
       <c r="T2">
-        <v>0.002166180289202668</v>
+        <v>0.002634596020061498</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H3">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I3">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J3">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N3">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P3">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q3">
-        <v>4.307728556788605</v>
+        <v>5.363496086861222</v>
       </c>
       <c r="R3">
-        <v>4.307728556788605</v>
+        <v>48.27146478175099</v>
       </c>
       <c r="S3">
-        <v>0.02365013921311543</v>
+        <v>0.02429749448432601</v>
       </c>
       <c r="T3">
-        <v>0.02365013921311543</v>
+        <v>0.02429749448432602</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H4">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I4">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J4">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N4">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P4">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q4">
-        <v>4.533684825897766</v>
+        <v>6.984174312242556</v>
       </c>
       <c r="R4">
-        <v>4.533684825897766</v>
+        <v>62.85756881018299</v>
       </c>
       <c r="S4">
-        <v>0.02489067634308067</v>
+        <v>0.0316394258672041</v>
       </c>
       <c r="T4">
-        <v>0.02489067634308067</v>
+        <v>0.0316394258672041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H5">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I5">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J5">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N5">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P5">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q5">
-        <v>5.679421071613458</v>
+        <v>7.178211175478999</v>
       </c>
       <c r="R5">
-        <v>5.679421071613458</v>
+        <v>64.60390057931099</v>
       </c>
       <c r="S5">
-        <v>0.0311809570224392</v>
+        <v>0.03251844386924807</v>
       </c>
       <c r="T5">
-        <v>0.0311809570224392</v>
+        <v>0.03251844386924808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H6">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I6">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J6">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N6">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P6">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q6">
-        <v>4.240181904260529</v>
+        <v>5.341106047182778</v>
       </c>
       <c r="R6">
-        <v>4.240181904260529</v>
+        <v>48.069954424645</v>
       </c>
       <c r="S6">
-        <v>0.0232792969665325</v>
+        <v>0.02419606402613597</v>
       </c>
       <c r="T6">
-        <v>0.0232792969665325</v>
+        <v>0.02419606402613597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.08407879550843</v>
+        <v>1.343026333333333</v>
       </c>
       <c r="H7">
-        <v>1.08407879550843</v>
+        <v>4.029078999999999</v>
       </c>
       <c r="I7">
-        <v>0.1276192516465029</v>
+        <v>0.1398576146187739</v>
       </c>
       <c r="J7">
-        <v>0.1276192516465029</v>
+        <v>0.139857614618774</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N7">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O7">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P7">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q7">
-        <v>4.089495139612411</v>
+        <v>5.424000766204222</v>
       </c>
       <c r="R7">
-        <v>4.089495139612411</v>
+        <v>48.816006895838</v>
       </c>
       <c r="S7">
-        <v>0.02245200181213245</v>
+        <v>0.0245715903517983</v>
       </c>
       <c r="T7">
-        <v>0.02245200181213245</v>
+        <v>0.02457159035179831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H8">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I8">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J8">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N8">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O8">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P8">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q8">
-        <v>0.5898915843685274</v>
+        <v>0.732809387148</v>
       </c>
       <c r="R8">
-        <v>0.5898915843685274</v>
+        <v>6.595284484332001</v>
       </c>
       <c r="S8">
-        <v>0.003238601946953067</v>
+        <v>0.003319743643685735</v>
       </c>
       <c r="T8">
-        <v>0.003238601946953067</v>
+        <v>0.003319743643685736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H9">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I9">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J9">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N9">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P9">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q9">
-        <v>6.440377174743854</v>
+        <v>6.758315850593</v>
       </c>
       <c r="R9">
-        <v>6.440377174743854</v>
+        <v>60.824842655337</v>
       </c>
       <c r="S9">
-        <v>0.03535873134987273</v>
+        <v>0.03061625093852061</v>
       </c>
       <c r="T9">
-        <v>0.03535873134987273</v>
+        <v>0.03061625093852061</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H10">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I10">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J10">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N10">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O10">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P10">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q10">
-        <v>6.778198738678653</v>
+        <v>8.800464322769001</v>
       </c>
       <c r="R10">
-        <v>6.778198738678653</v>
+        <v>79.20417890492101</v>
       </c>
       <c r="S10">
-        <v>0.03721342737143601</v>
+        <v>0.03986750990008141</v>
       </c>
       <c r="T10">
-        <v>0.03721342737143601</v>
+        <v>0.03986750990008141</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H11">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I11">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J11">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N11">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O11">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P11">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q11">
-        <v>8.491160330363774</v>
+        <v>9.044962013672999</v>
       </c>
       <c r="R11">
-        <v>8.491160330363774</v>
+        <v>81.404658123057</v>
       </c>
       <c r="S11">
-        <v>0.04661786861605201</v>
+        <v>0.04097512351626788</v>
       </c>
       <c r="T11">
-        <v>0.04661786861605201</v>
+        <v>0.04097512351626788</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H12">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I12">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J12">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N12">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O12">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P12">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q12">
-        <v>6.33938986474109</v>
+        <v>6.730103103235001</v>
       </c>
       <c r="R12">
-        <v>6.33938986474109</v>
+        <v>60.57092792911501</v>
       </c>
       <c r="S12">
-        <v>0.03480429438643881</v>
+        <v>0.03048844268393869</v>
       </c>
       <c r="T12">
-        <v>0.03480429438643881</v>
+        <v>0.03048844268393869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.62077908070913</v>
+        <v>1.692291</v>
       </c>
       <c r="H13">
-        <v>1.62077908070913</v>
+        <v>5.076873</v>
       </c>
       <c r="I13">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="J13">
-        <v>0.1908003497729125</v>
+        <v>0.1762286982961761</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N13">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O13">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P13">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q13">
-        <v>6.114101853488303</v>
+        <v>6.834555252434</v>
       </c>
       <c r="R13">
-        <v>6.114101853488303</v>
+        <v>61.51099727190601</v>
       </c>
       <c r="S13">
-        <v>0.03356742610215992</v>
+        <v>0.03096162761368176</v>
       </c>
       <c r="T13">
-        <v>0.03356742610215992</v>
+        <v>0.03096162761368177</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H14">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I14">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J14">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N14">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O14">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P14">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q14">
-        <v>0.1960722036950047</v>
+        <v>0.256344781496</v>
       </c>
       <c r="R14">
-        <v>0.1960722036950047</v>
+        <v>2.307103033464001</v>
       </c>
       <c r="S14">
-        <v>0.001076468689258859</v>
+        <v>0.001161282830007587</v>
       </c>
       <c r="T14">
-        <v>0.001076468689258859</v>
+        <v>0.001161282830007587</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H15">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I15">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J15">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N15">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O15">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P15">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q15">
-        <v>2.140696661456574</v>
+        <v>2.364133198052667</v>
       </c>
       <c r="R15">
-        <v>2.140696661456574</v>
+        <v>21.277198782474</v>
       </c>
       <c r="S15">
-        <v>0.01175277722100536</v>
+        <v>0.01070990123039555</v>
       </c>
       <c r="T15">
-        <v>0.01175277722100536</v>
+        <v>0.01070990123039555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H16">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I16">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J16">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N16">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O16">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P16">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q16">
-        <v>2.25298410588129</v>
+        <v>3.078499188804667</v>
       </c>
       <c r="R16">
-        <v>2.25298410588129</v>
+        <v>27.70649269924201</v>
       </c>
       <c r="S16">
-        <v>0.01236925378342583</v>
+        <v>0.01394609334072568</v>
       </c>
       <c r="T16">
-        <v>0.01236925378342583</v>
+        <v>0.01394609334072568</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H17">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I17">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J17">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N17">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O17">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P17">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q17">
-        <v>2.822350008068458</v>
+        <v>3.164027169546</v>
       </c>
       <c r="R17">
-        <v>2.822350008068458</v>
+        <v>28.47624452591401</v>
       </c>
       <c r="S17">
-        <v>0.01549516635484517</v>
+        <v>0.01433354876283529</v>
       </c>
       <c r="T17">
-        <v>0.01549516635484517</v>
+        <v>0.01433354876283529</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H18">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I18">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J18">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N18">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O18">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P18">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q18">
-        <v>2.107129807915734</v>
+        <v>2.354264068803334</v>
       </c>
       <c r="R18">
-        <v>2.107129807915734</v>
+        <v>21.18837661923001</v>
       </c>
       <c r="S18">
-        <v>0.01156848966696808</v>
+        <v>0.01066519249758074</v>
       </c>
       <c r="T18">
-        <v>0.01156848966696808</v>
+        <v>0.01066519249758073</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5387256480317369</v>
+        <v>0.5919820000000001</v>
       </c>
       <c r="H19">
-        <v>0.5387256480317369</v>
+        <v>1.775946</v>
       </c>
       <c r="I19">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="J19">
-        <v>0.06341952663352596</v>
+        <v>0.06164673645062636</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N19">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O19">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P19">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q19">
-        <v>2.032247036228653</v>
+        <v>2.390802579134667</v>
       </c>
       <c r="R19">
-        <v>2.032247036228653</v>
+        <v>21.51722321221201</v>
       </c>
       <c r="S19">
-        <v>0.01115737091802266</v>
+        <v>0.01083071778908152</v>
       </c>
       <c r="T19">
-        <v>0.01115737091802266</v>
+        <v>0.01083071778908153</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H20">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I20">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J20">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N20">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O20">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P20">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q20">
-        <v>0.5120617942785063</v>
+        <v>0.721022364988</v>
       </c>
       <c r="R20">
-        <v>0.5120617942785063</v>
+        <v>6.489201284892</v>
       </c>
       <c r="S20">
-        <v>0.002811303581633416</v>
+        <v>0.003266346549461914</v>
       </c>
       <c r="T20">
-        <v>0.002811303581633416</v>
+        <v>0.003266346549461914</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H21">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I21">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J21">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N21">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O21">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P21">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q21">
-        <v>5.590639329869421</v>
+        <v>6.649610339866333</v>
       </c>
       <c r="R21">
-        <v>5.590639329869421</v>
+        <v>59.846493058797</v>
       </c>
       <c r="S21">
-        <v>0.0306935306388709</v>
+        <v>0.03012379760127156</v>
       </c>
       <c r="T21">
-        <v>0.0306935306388709</v>
+        <v>0.03012379760127156</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H22">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I22">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J22">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N22">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O22">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P22">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q22">
-        <v>5.883889006180032</v>
+        <v>8.658911458122335</v>
       </c>
       <c r="R22">
-        <v>5.883889006180032</v>
+        <v>77.93020312310099</v>
       </c>
       <c r="S22">
-        <v>0.03230351965686913</v>
+        <v>0.03922625279980715</v>
       </c>
       <c r="T22">
-        <v>0.03230351965686913</v>
+        <v>0.03922625279980715</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H23">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I23">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J23">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N23">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O23">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P23">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q23">
-        <v>7.370843913508335</v>
+        <v>8.899476476013</v>
       </c>
       <c r="R23">
-        <v>7.370843913508335</v>
+        <v>80.09528828411699</v>
       </c>
       <c r="S23">
-        <v>0.04046714698350741</v>
+        <v>0.04031605077871104</v>
       </c>
       <c r="T23">
-        <v>0.04046714698350741</v>
+        <v>0.04031605077871103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H24">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I24">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J24">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N24">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O24">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P24">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q24">
-        <v>5.50297619899982</v>
+        <v>6.621851386201667</v>
       </c>
       <c r="R24">
-        <v>5.50297619899982</v>
+        <v>59.596662475815</v>
       </c>
       <c r="S24">
-        <v>0.03021224561322638</v>
+        <v>0.02999804510464718</v>
       </c>
       <c r="T24">
-        <v>0.03021224561322638</v>
+        <v>0.02999804510464718</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.40693487784781</v>
+        <v>1.665071</v>
       </c>
       <c r="H25">
-        <v>1.40693487784781</v>
+        <v>4.995213</v>
       </c>
       <c r="I25">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="J25">
-        <v>0.165626315144456</v>
+        <v>0.1733941118287057</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N25">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O25">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P25">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q25">
-        <v>5.307412494874371</v>
+        <v>6.724623453487333</v>
       </c>
       <c r="R25">
-        <v>5.307412494874371</v>
+        <v>60.52161108138601</v>
       </c>
       <c r="S25">
-        <v>0.02913856867034877</v>
+        <v>0.03046361899480687</v>
       </c>
       <c r="T25">
-        <v>0.02913856867034877</v>
+        <v>0.03046361899480687</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.60703073572011</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H26">
-        <v>2.60703073572011</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I26">
-        <v>0.3069032554557011</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J26">
-        <v>0.3069032554557011</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N26">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O26">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P26">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q26">
-        <v>0.9488433738412579</v>
+        <v>1.220523338526667</v>
       </c>
       <c r="R26">
-        <v>0.9488433738412579</v>
+        <v>10.98471004674</v>
       </c>
       <c r="S26">
-        <v>0.005209306386639418</v>
+        <v>0.005529165791411564</v>
       </c>
       <c r="T26">
-        <v>0.005209306386639418</v>
+        <v>0.005529165791411565</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.60703073572011</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H27">
-        <v>2.60703073572011</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I27">
-        <v>0.3069032554557011</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J27">
-        <v>0.3069032554557011</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N27">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O27">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P27">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q27">
-        <v>10.3593768231765</v>
+        <v>11.25624530669056</v>
       </c>
       <c r="R27">
-        <v>10.3593768231765</v>
+        <v>101.306207760215</v>
       </c>
       <c r="S27">
-        <v>0.05687468483666315</v>
+        <v>0.05099259024790093</v>
       </c>
       <c r="T27">
-        <v>0.05687468483666315</v>
+        <v>0.05099259024790094</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.60703073572011</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H28">
-        <v>2.60703073572011</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I28">
-        <v>0.3069032554557011</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J28">
-        <v>0.3069032554557011</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N28">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O28">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P28">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q28">
-        <v>10.90276438959408</v>
+        <v>14.65752525034389</v>
       </c>
       <c r="R28">
-        <v>10.90276438959408</v>
+        <v>131.917727253095</v>
       </c>
       <c r="S28">
-        <v>0.05985797206635626</v>
+        <v>0.06640093199592838</v>
       </c>
       <c r="T28">
-        <v>0.05985797206635626</v>
+        <v>0.06640093199592838</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.60703073572011</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H29">
-        <v>2.60703073572011</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I29">
-        <v>0.3069032554557011</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J29">
-        <v>0.3069032554557011</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N29">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O29">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P29">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q29">
-        <v>13.65807112558507</v>
+        <v>15.064745931735</v>
       </c>
       <c r="R29">
-        <v>13.65807112558507</v>
+        <v>135.582713385615</v>
       </c>
       <c r="S29">
-        <v>0.07498505981619366</v>
+        <v>0.06824570676592254</v>
       </c>
       <c r="T29">
-        <v>0.07498505981619366</v>
+        <v>0.06824570676592254</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.60703073572011</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H30">
-        <v>2.60703073572011</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I30">
-        <v>0.3069032554557011</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J30">
-        <v>0.3069032554557011</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N30">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O30">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P30">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q30">
-        <v>10.19693826246919</v>
+        <v>11.20925584776945</v>
       </c>
       <c r="R30">
-        <v>10.19693826246919</v>
+        <v>100.883302629925</v>
       </c>
       <c r="S30">
-        <v>0.05598287038650433</v>
+        <v>0.05077972048898492</v>
       </c>
       <c r="T30">
-        <v>0.05598287038650433</v>
+        <v>0.05077972048898492</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.60703073572011</v>
+        <v>2.818578333333333</v>
       </c>
       <c r="H31">
-        <v>2.60703073572011</v>
+        <v>8.455735000000001</v>
       </c>
       <c r="I31">
-        <v>0.3069032554557011</v>
+        <v>0.2935159442017589</v>
       </c>
       <c r="J31">
-        <v>0.3069032554557011</v>
+        <v>0.293515944201759</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N31">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O31">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P31">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q31">
-        <v>9.834561442138874</v>
+        <v>11.38322507918556</v>
       </c>
       <c r="R31">
-        <v>9.834561442138874</v>
+        <v>102.44902571267</v>
       </c>
       <c r="S31">
-        <v>0.05399336196334423</v>
+        <v>0.05156782891161062</v>
       </c>
       <c r="T31">
-        <v>0.05399336196334423</v>
+        <v>0.05156782891161064</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.23708455985763</v>
+        <v>1.491863</v>
       </c>
       <c r="H32">
-        <v>1.23708455985763</v>
+        <v>4.475588999999999</v>
       </c>
       <c r="I32">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039588</v>
       </c>
       <c r="J32">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039589</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.36395557629633</v>
+        <v>0.433028</v>
       </c>
       <c r="N32">
-        <v>0.36395557629633</v>
+        <v>1.299084</v>
       </c>
       <c r="O32">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="P32">
-        <v>0.01697377363724751</v>
+        <v>0.01883770166710565</v>
       </c>
       <c r="Q32">
-        <v>0.4502438239102755</v>
+        <v>0.6460184511639999</v>
       </c>
       <c r="R32">
-        <v>0.4502438239102755</v>
+        <v>5.814166060475999</v>
       </c>
       <c r="S32">
-        <v>0.002471912743560086</v>
+        <v>0.002926566832477352</v>
       </c>
       <c r="T32">
-        <v>0.002471912743560086</v>
+        <v>0.002926566832477353</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.23708455985763</v>
+        <v>1.491863</v>
       </c>
       <c r="H33">
-        <v>1.23708455985763</v>
+        <v>4.475588999999999</v>
       </c>
       <c r="I33">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039588</v>
       </c>
       <c r="J33">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039589</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.97363049128573</v>
+        <v>3.993589666666667</v>
       </c>
       <c r="N33">
-        <v>3.97363049128573</v>
+        <v>11.980769</v>
       </c>
       <c r="O33">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="P33">
-        <v>0.1853179587561349</v>
+        <v>0.1737302223447504</v>
       </c>
       <c r="Q33">
-        <v>4.915716927349066</v>
+        <v>5.957888660882332</v>
       </c>
       <c r="R33">
-        <v>4.915716927349066</v>
+        <v>53.62099794794099</v>
       </c>
       <c r="S33">
-        <v>0.02698809549660736</v>
+        <v>0.02699018784233572</v>
       </c>
       <c r="T33">
-        <v>0.02698809549660736</v>
+        <v>0.02699018784233573</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.23708455985763</v>
+        <v>1.491863</v>
       </c>
       <c r="H34">
-        <v>1.23708455985763</v>
+        <v>4.475588999999999</v>
       </c>
       <c r="I34">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039588</v>
       </c>
       <c r="J34">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039589</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.18206208320077</v>
+        <v>5.200325666666667</v>
       </c>
       <c r="N34">
-        <v>4.18206208320077</v>
+        <v>15.600977</v>
       </c>
       <c r="O34">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="P34">
-        <v>0.1950385699802271</v>
+        <v>0.2262259795682011</v>
       </c>
       <c r="Q34">
-        <v>5.173564431493708</v>
+        <v>7.758173450050332</v>
       </c>
       <c r="R34">
-        <v>5.173564431493708</v>
+        <v>69.82356105045299</v>
       </c>
       <c r="S34">
-        <v>0.0284037207590592</v>
+        <v>0.03514576566445436</v>
       </c>
       <c r="T34">
-        <v>0.0284037207590592</v>
+        <v>0.03514576566445436</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.23708455985763</v>
+        <v>1.491863</v>
       </c>
       <c r="H35">
-        <v>1.23708455985763</v>
+        <v>4.475588999999999</v>
       </c>
       <c r="I35">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039588</v>
       </c>
       <c r="J35">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039589</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.23893751556115</v>
+        <v>5.344803</v>
       </c>
       <c r="N35">
-        <v>5.23893751556115</v>
+        <v>16.034409</v>
       </c>
       <c r="O35">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="P35">
-        <v>0.2443280039661135</v>
+        <v>0.2325110717631453</v>
       </c>
       <c r="Q35">
-        <v>6.481008710559592</v>
+        <v>7.973713837988998</v>
       </c>
       <c r="R35">
-        <v>6.481008710559592</v>
+        <v>71.76342454190099</v>
       </c>
       <c r="S35">
-        <v>0.03558180517307603</v>
+        <v>0.03612219807016048</v>
       </c>
       <c r="T35">
-        <v>0.03558180517307603</v>
+        <v>0.03612219807016048</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.23708455985763</v>
+        <v>1.491863</v>
       </c>
       <c r="H36">
-        <v>1.23708455985763</v>
+        <v>4.475588999999999</v>
       </c>
       <c r="I36">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039588</v>
       </c>
       <c r="J36">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039589</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.91132261033839</v>
+        <v>3.976918333333334</v>
       </c>
       <c r="N36">
-        <v>3.91132261033839</v>
+        <v>11.930755</v>
       </c>
       <c r="O36">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741227</v>
       </c>
       <c r="P36">
-        <v>0.1824121099770641</v>
+        <v>0.1730049814741226</v>
       </c>
       <c r="Q36">
-        <v>4.838636809871664</v>
+        <v>5.933017315521666</v>
       </c>
       <c r="R36">
-        <v>4.838636809871664</v>
+        <v>53.397155839695</v>
       </c>
       <c r="S36">
-        <v>0.02656491295739396</v>
+        <v>0.02687751667283512</v>
       </c>
       <c r="T36">
-        <v>0.02656491295739396</v>
+        <v>0.02687751667283512</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.23708455985763</v>
+        <v>1.491863</v>
       </c>
       <c r="H37">
-        <v>1.23708455985763</v>
+        <v>4.475588999999999</v>
       </c>
       <c r="I37">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039588</v>
       </c>
       <c r="J37">
-        <v>0.1456313013469016</v>
+        <v>0.1553568946039589</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.77232278369069</v>
+        <v>4.038640666666667</v>
       </c>
       <c r="N37">
-        <v>3.77232278369069</v>
+        <v>12.115922</v>
       </c>
       <c r="O37">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="P37">
-        <v>0.1759295836832129</v>
+        <v>0.1756900431826749</v>
       </c>
       <c r="Q37">
-        <v>4.666682270502907</v>
+        <v>6.025098580895333</v>
       </c>
       <c r="R37">
-        <v>4.666682270502907</v>
+        <v>54.225887228058</v>
       </c>
       <c r="S37">
-        <v>0.02562085421720492</v>
+        <v>0.0272946595216958</v>
       </c>
       <c r="T37">
-        <v>0.02562085421720492</v>
+        <v>0.02729465952169581</v>
       </c>
     </row>
   </sheetData>
